--- a/galerias.xlsx
+++ b/galerias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slima\Desktop\projeto_thays_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDDAA133-0A88-4B39-A88D-1E748E9C18F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0543EE17-1BEA-429D-8A77-2662E727DF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AF414350-50F2-42AE-9EC3-D8F78813CB6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{AF414350-50F2-42AE-9EC3-D8F78813CB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="All Gifts" sheetId="2" r:id="rId1"/>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E7AB77-C1A5-4485-A22E-3A3E0BBD0C0E}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1741,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,6 +2004,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2011,8 +2012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FF2B02-6CFA-4B28-B624-F6FC6DB43E29}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2221,5 +2222,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>